--- a/data/trans_orig/P14C14-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C14-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BC9AEC0-9486-4E57-9ED8-0D7657E6C8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{220D9402-EF94-4A0A-A70E-3C1C198F4306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18937B9F-6C03-463C-959E-FCD9198CE381}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9CA4F047-07DD-4D8B-A0AF-753074C8004C}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="134">
   <si>
     <t>Población según el tiempo de diagnóstico del fibromialgia en 2015 (Tasa respuesta: 1,95%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>82,99%</t>
   </si>
   <si>
-    <t>49,96%</t>
+    <t>50,25%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>55,08%</t>
+    <t>55,39%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -116,13 +116,13 @@
     <t>17,01%</t>
   </si>
   <si>
-    <t>50,04%</t>
+    <t>49,75%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>44,92%</t>
+    <t>44,61%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -134,19 +134,19 @@
     <t>77,54%</t>
   </si>
   <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>72,39%</t>
   </si>
   <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -155,19 +155,19 @@
     <t>22,46%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>27,61%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -200,25 +200,25 @@
     <t>88,86%</t>
   </si>
   <si>
-    <t>47,88%</t>
+    <t>48,13%</t>
   </si>
   <si>
     <t>89,96%</t>
   </si>
   <si>
-    <t>56,85%</t>
+    <t>57,84%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>52,12%</t>
+    <t>51,87%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>43,15%</t>
+    <t>42,16%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -233,37 +233,37 @@
     <t>68,42%</t>
   </si>
   <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>72,41%</t>
   </si>
   <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>31,58%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
   </si>
   <si>
     <t>27,59%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -284,37 +284,37 @@
     <t>63,2%</t>
   </si>
   <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>66,48%</t>
   </si>
   <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -326,16 +326,16 @@
     <t>85,09%</t>
   </si>
   <si>
-    <t>39,3%</t>
+    <t>39,44%</t>
   </si>
   <si>
     <t>79,69%</t>
   </si>
   <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
   </si>
   <si>
     <t>80,32%</t>
@@ -344,28 +344,28 @@
     <t>68,49%</t>
   </si>
   <si>
-    <t>89,39%</t>
+    <t>89,55%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>60,7%</t>
+    <t>60,56%</t>
   </si>
   <si>
     <t>20,31%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>10,61%</t>
+    <t>10,45%</t>
   </si>
   <si>
     <t>31,51%</t>
@@ -380,43 +380,46 @@
     <t>85,05%</t>
   </si>
   <si>
-    <t>60,75%</t>
+    <t>60,03%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>69,97%</t>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>39,25%</t>
+    <t>39,97%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>13,71%</t>
+    <t>13,92%</t>
   </si>
   <si>
     <t>28,19%</t>
@@ -431,7 +434,7 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>5,1%</t>
+    <t>4,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -846,7 +849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D23FA2-6844-4C1B-8C0F-275407B2E25C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92B3F10-47E0-454C-B8D0-9FE84E114920}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2638,7 +2641,7 @@
         <v>119</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2656,13 @@
         <v>2100</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H37" s="7">
         <v>25</v>
@@ -2668,13 +2671,13 @@
         <v>26415</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M37" s="7">
         <v>27</v>
@@ -2683,13 +2686,13 @@
         <v>28515</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2722,13 @@
         <v>2036</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -2734,13 +2737,13 @@
         <v>2036</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,7 +2799,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C14-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C14-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{220D9402-EF94-4A0A-A70E-3C1C198F4306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{095D8781-3A03-469B-B73B-44BFA5635300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9CA4F047-07DD-4D8B-A0AF-753074C8004C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6083C67D-245F-456F-88B0-F07E1BB4DEB5}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="134">
-  <si>
-    <t>Población según el tiempo de diagnóstico del fibromialgia en 2015 (Tasa respuesta: 1,95%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="133">
+  <si>
+    <t>Población según el tiempo de diagnóstico del fibromialgia en 2016 (Tasa respuesta: 1,95%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,13 +83,13 @@
     <t>82,99%</t>
   </si>
   <si>
-    <t>50,25%</t>
+    <t>54,93%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>55,39%</t>
+    <t>59,22%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -116,13 +116,13 @@
     <t>17,01%</t>
   </si>
   <si>
-    <t>49,75%</t>
+    <t>45,07%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>44,61%</t>
+    <t>40,78%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -134,19 +134,19 @@
     <t>77,54%</t>
   </si>
   <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>72,39%</t>
   </si>
   <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -155,19 +155,19 @@
     <t>22,46%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
   </si>
   <si>
     <t>27,61%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -182,13 +182,13 @@
     <t>44,28%</t>
   </si>
   <si>
-    <t>83,45%</t>
+    <t>83,52%</t>
   </si>
   <si>
     <t>55,72%</t>
   </si>
   <si>
-    <t>16,55%</t>
+    <t>16,48%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -200,25 +200,25 @@
     <t>88,86%</t>
   </si>
   <si>
-    <t>48,13%</t>
+    <t>53,37%</t>
   </si>
   <si>
     <t>89,96%</t>
   </si>
   <si>
-    <t>57,84%</t>
+    <t>56,47%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>51,87%</t>
+    <t>46,63%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>42,16%</t>
+    <t>43,53%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -233,37 +233,37 @@
     <t>68,42%</t>
   </si>
   <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
   </si>
   <si>
     <t>72,41%</t>
   </si>
   <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>31,58%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
   </si>
   <si>
     <t>27,59%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -284,37 +284,37 @@
     <t>63,2%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>66,48%</t>
   </si>
   <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -326,49 +326,49 @@
     <t>85,09%</t>
   </si>
   <si>
-    <t>39,44%</t>
+    <t>40,16%</t>
   </si>
   <si>
     <t>79,69%</t>
   </si>
   <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>80,32%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>60,56%</t>
+    <t>59,84%</t>
   </si>
   <si>
     <t>20,31%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -380,61 +380,58 @@
     <t>85,05%</t>
   </si>
   <si>
-    <t>60,03%</t>
+    <t>56,04%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
+    <t>84,32%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>39,97%</t>
+    <t>43,96%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>5,9%</t>
+    <t>5,33%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>4,64%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -849,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92B3F10-47E0-454C-B8D0-9FE84E114920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD10D262-F0CD-4CBD-BF8C-3B183C7D8B60}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2623,10 +2620,10 @@
         <v>115</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M36" s="7">
         <v>99</v>
@@ -2635,13 +2632,13 @@
         <v>108565</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,13 +2653,13 @@
         <v>2100</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H37" s="7">
         <v>25</v>
@@ -2671,13 +2668,13 @@
         <v>26415</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M37" s="7">
         <v>27</v>
@@ -2686,13 +2683,13 @@
         <v>28515</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2719,13 @@
         <v>2036</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -2737,13 +2734,13 @@
         <v>2036</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,7 +2796,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
